--- a/GLDS.xlsx
+++ b/GLDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priot\Documents\An 4\Sem I\IA\Tema1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E3DBEF-E4CA-4FF6-B52F-E167E19E84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9C4F83-282A-4B61-AC6C-89ACB3CB56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,13 +86,13 @@
     <t>Algorithm configuration</t>
   </si>
   <si>
-    <t>Procent solution found</t>
-  </si>
-  <si>
-    <t>Procent process crashed unexpectedly</t>
-  </si>
-  <si>
-    <t>Procent memory exceeded</t>
+    <t>Percent memory exceeded</t>
+  </si>
+  <si>
+    <t>Percent process crashed unexpectedly</t>
+  </si>
+  <si>
+    <t>Percent solution found</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +116,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,10 +153,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,11 +172,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -174,6 +203,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CA66E8E-3587-4246-BC5C-B37C72E3A0A6}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{8CA66E8E-3587-4246-BC5C-B37C72E3A0A6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3FDF82A4-C668-40EA-BEAA-95BBEC0A0EB9}" name="Algorithm configuration"/>
+    <tableColumn id="2" xr3:uid="{4DE3DA08-9FC3-4B28-BCB5-2019517F55EF}" name="Percent solution found" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2408514E-1C7E-4D07-9270-265A41D30944}" name="Percent process crashed unexpectedly" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1690C38E-CF7D-4780-BCDB-37314FCFBB7A}" name="Percent memory exceeded" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,15 +829,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -803,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,9 +864,7 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -850,137 +890,110 @@
       <c r="C4" s="7">
         <v>0.2</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
+      <c r="B8" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
+      <c r="B9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="B10" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>